--- a/Test.xlsx
+++ b/Test.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4127f3c75ff7001b/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{530123A0-DC33-4716-AF10-87053A519830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8880F4A0-1FFF-4BFB-81B7-D09A46BEF166}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="250">
   <si>
     <t>Term</t>
   </si>
@@ -19,61 +28,28 @@
     <t>Definition</t>
   </si>
   <si>
-    <t>Chika</t>
-  </si>
-  <si>
     <t>Gossip or a piece of interesting news.</t>
   </si>
   <si>
-    <t>Beshie/Besh/Bes</t>
-  </si>
-  <si>
     <t>A term of endearment, equivalent to “best friend.”</t>
   </si>
   <si>
-    <t>Char/Chariz</t>
-  </si>
-  <si>
     <t>Indicates something is a joke or not serious.</t>
   </si>
   <si>
-    <t>Echos/Echosera</t>
-  </si>
-  <si>
     <t>Someone who loves to joke or exaggerate.</t>
   </si>
   <si>
-    <t>Mumsh</t>
-  </si>
-  <si>
     <t>A term of endearment, similar to “mom” or “sis.”</t>
   </si>
   <si>
-    <t>Kyah</t>
-  </si>
-  <si>
     <t>A casual term to address a male person, similar to “bro.”</t>
   </si>
   <si>
-    <t>Forda</t>
-  </si>
-  <si>
     <t>shorthand for "for the."</t>
   </si>
   <si>
-    <t>Mars/Mare/Marecakes</t>
-  </si>
-  <si>
     <t>Friendly terms for addressing someone, akin to “friend” or “sis.”</t>
-  </si>
-  <si>
-    <t>Dasurv</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A playful take on the word “deserve.”</t>
-  </si>
-  <si>
-    <t>Naur</t>
   </si>
   <si>
     <t>A dramatic way to say “no.” Borrowed from the Australians.</t>
@@ -194,22 +170,639 @@
   </si>
   <si>
     <t>Used to describe someone who is aware of his nature of being gay from the time that he was a child</t>
+  </si>
+  <si>
+    <t>chika</t>
+  </si>
+  <si>
+    <t>beshie/besh/bes</t>
+  </si>
+  <si>
+    <t>char/chariz</t>
+  </si>
+  <si>
+    <t>echos/echosera</t>
+  </si>
+  <si>
+    <t>mumsh</t>
+  </si>
+  <si>
+    <t>kyah</t>
+  </si>
+  <si>
+    <t>forda</t>
+  </si>
+  <si>
+    <t>mars/mare/marecakes</t>
+  </si>
+  <si>
+    <t>dasurv</t>
+  </si>
+  <si>
+    <t>A playful take on the word “deserve.”</t>
+  </si>
+  <si>
+    <t>naur</t>
+  </si>
+  <si>
+    <t>tukling</t>
+  </si>
+  <si>
+    <t>Used to describe someone who recently identified his gender as gay</t>
+  </si>
+  <si>
+    <t>junakis</t>
+  </si>
+  <si>
+    <t>A Filipino slang word used to refer to someone's child, or someone he treats as his own child</t>
+  </si>
+  <si>
+    <t>mudrabells</t>
+  </si>
+  <si>
+    <t>A fun version of the word "mother"</t>
+  </si>
+  <si>
+    <t>jombag</t>
+  </si>
+  <si>
+    <t>A Filipino slang word used to state the act of beating someone up.</t>
+  </si>
+  <si>
+    <t>mashonda</t>
+  </si>
+  <si>
+    <t>Used to describe someone who is old</t>
+  </si>
+  <si>
+    <t>majontot</t>
+  </si>
+  <si>
+    <t>A fun version of the word "mabaho", which describes a place, person or thing that has a foul smell</t>
+  </si>
+  <si>
+    <t>okems</t>
+  </si>
+  <si>
+    <t>A fun version of the word "me"</t>
+  </si>
+  <si>
+    <t>jukaw</t>
+  </si>
+  <si>
+    <t>A fun version of the word "ikaw", the Filipino term for you.</t>
+  </si>
+  <si>
+    <t>jebs</t>
+  </si>
+  <si>
+    <t>A Filipino slang for the term poop, this term is commonly used in phrases "naje-jebs", which pertains to the feeling of the need to poop</t>
+  </si>
+  <si>
+    <t>badet</t>
+  </si>
+  <si>
+    <t>Derived from the Filipino slang "bagets", this term is used to refer to a young gay.</t>
+  </si>
+  <si>
+    <t>utaw</t>
+  </si>
+  <si>
+    <t>A fun version of the word "person".</t>
+  </si>
+  <si>
+    <t>estrogenic</t>
+  </si>
+  <si>
+    <t>Derived from the scientific term "Estrogen", a category of sex hormone responsible for regulating female reporductive system, 
+this term refers to someone with big boobs</t>
+  </si>
+  <si>
+    <t>detey</t>
+  </si>
+  <si>
+    <t>A playful take on the word "dito', which means here.</t>
+  </si>
+  <si>
+    <t>tomjones</t>
+  </si>
+  <si>
+    <t>An alternate spelling of the Tagalog word gutóm, which means hungry</t>
+  </si>
+  <si>
+    <t>getlaku</t>
+  </si>
+  <si>
+    <t>Derived from the word "get", this term refers to the act of getting something</t>
+  </si>
+  <si>
+    <t>bavarian</t>
+  </si>
+  <si>
+    <t>A fun version of saying goodbye</t>
+  </si>
+  <si>
+    <t>booking</t>
+  </si>
+  <si>
+    <t>Term used to refer to the act of arranging a date for someone</t>
+  </si>
+  <si>
+    <t>gora</t>
+  </si>
+  <si>
+    <t>A Filipino slang word used to show support or affirmation, a playful term for the word "go!"</t>
+  </si>
+  <si>
+    <t>lorky</t>
+  </si>
+  <si>
+    <t>A fun version of the word "lola", the Tagalog term for the word grandmother</t>
+  </si>
+  <si>
+    <t>korams</t>
+  </si>
+  <si>
+    <t>A fun version of the word "korek" or "correct".</t>
+  </si>
+  <si>
+    <t>guramenchi</t>
+  </si>
+  <si>
+    <t>Derived from the word "gurang", this term refers to someone who is old</t>
+  </si>
+  <si>
+    <t>carps</t>
+  </si>
+  <si>
+    <t>Came from the word carpet or rug. It simply means “game ka ba?"</t>
+  </si>
+  <si>
+    <t>pics</t>
+  </si>
+  <si>
+    <t>Short for "pictures," commonly used when requesting or referring to photographs</t>
+  </si>
+  <si>
+    <t>sharks</t>
+  </si>
+  <si>
+    <t>An expression means “Let me see.”</t>
+  </si>
+  <si>
+    <t>nacaw</t>
+  </si>
+  <si>
+    <t>A Tagalog slang word meaning "stolen" or "snatched."</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>Means “as in.” The Tagalog word for “salt” is asin, which sounds like “as in.”</t>
+  </si>
+  <si>
+    <t>starbs</t>
+  </si>
+  <si>
+    <t>Came from Starbucks, a popular coffee chain, this term referenced from the sound of the word "coffee", similar to copy. 
+This term is used in phrases "pa-starbs", which means to ask for permission to copy someone's work.</t>
+  </si>
+  <si>
+    <t>sags</t>
+  </si>
+  <si>
+    <t>Imply that something is “forced” or “unnatural,” which in Tagalog is pilit.</t>
+  </si>
+  <si>
+    <t>deins</t>
+  </si>
+  <si>
+    <t>A slang for “Hindi” or no</t>
+  </si>
+  <si>
+    <t>timbs</t>
+  </si>
+  <si>
+    <t>In Filipino slang, "timbs" can sound like "bakit," which means "why" in English.</t>
+  </si>
+  <si>
+    <t>cheugy</t>
+  </si>
+  <si>
+    <t>used to describe “uncool” things that are either out of style
+or trying too hard to be in style</t>
+  </si>
+  <si>
+    <t>drip</t>
+  </si>
+  <si>
+    <t>an unattractive, boring, or colorless person.</t>
+  </si>
+  <si>
+    <t>bussin</t>
+  </si>
+  <si>
+    <t>extremely good : excellent.</t>
+  </si>
+  <si>
+    <t>vibing</t>
+  </si>
+  <si>
+    <t>Vibing means relaxing, tapping into good feelings,and just generally enjoying 
+the atmosphere.</t>
+  </si>
+  <si>
+    <t>bounce</t>
+  </si>
+  <si>
+    <t>To leave or depart from a place, often abruptly.</t>
+  </si>
+  <si>
+    <t>Came from the word came from the cartoon character Scooby Doo, who is a Great Dane, which sounds like the Filipino slang for no, “deins.”</t>
+  </si>
+  <si>
+    <t>gumps</t>
+  </si>
+  <si>
+    <t>A term derived from the Forrest Gump actor "Tom Hanks" or "T.Hanks", this term is playful way of saying thanks.</t>
+  </si>
+  <si>
+    <t>lodi</t>
+  </si>
+  <si>
+    <t>lodi refers to the person you idolise or look up to</t>
+  </si>
+  <si>
+    <t>olat(s)</t>
+  </si>
+  <si>
+    <t>The word olats is a syllabic reversal of the word "talo", the Tagalog term for defeat or lost</t>
+  </si>
+  <si>
+    <t>dehin(s)</t>
+  </si>
+  <si>
+    <t>a Filipino Slang for "No" or "None". It comes from the inversion of the syllabes in the Tagalog word "Hindi"</t>
+  </si>
+  <si>
+    <t>tsekot</t>
+  </si>
+  <si>
+    <t>tsekot is an alternate spelling of the Tagalog word "kotse", the tagalog term for car</t>
+  </si>
+  <si>
+    <t>tomgut(s)</t>
+  </si>
+  <si>
+    <t>tomguts is an alternative spelling of the Tagalog word "gutom", the tagalog term for hungry</t>
+  </si>
+  <si>
+    <t>sogbu</t>
+  </si>
+  <si>
+    <t>sogbu is an alternative spelling of the Tagalog word "busog", the tagalog term for full or stuffed (in the context of food).</t>
+  </si>
+  <si>
+    <t>petmalu</t>
+  </si>
+  <si>
+    <t>The word petmalu is a syllabic reversal of the word malupit or malupet, the Tagalog term for cruel.</t>
+  </si>
+  <si>
+    <t>ednis</t>
+  </si>
+  <si>
+    <t>The word “sinde” inverted, and also has the same meaning: to burn, in most contexts mostly marijuana</t>
+  </si>
+  <si>
+    <t>rapsa</t>
+  </si>
+  <si>
+    <t>Expresses satisfaction, especially with food</t>
+  </si>
+  <si>
+    <t>yorme</t>
+  </si>
+  <si>
+    <t>A playful term for “mayor.”</t>
+  </si>
+  <si>
+    <t>eguls</t>
+  </si>
+  <si>
+    <t>Derived from “lugi,” indicating a loss.</t>
+  </si>
+  <si>
+    <t>werpa</t>
+  </si>
+  <si>
+    <t>This word has been part of everyday Tagalog conversation and can be used to show the utmost support to someone.</t>
+  </si>
+  <si>
+    <t>goli</t>
+  </si>
+  <si>
+    <t>Derived from "ligo", refers to the act of taking a bath</t>
+  </si>
+  <si>
+    <t>yosi</t>
+  </si>
+  <si>
+    <t>Derived from "sigarilyo", the tagalog term for a cigarette</t>
+  </si>
+  <si>
+    <t>tsikot</t>
+  </si>
+  <si>
+    <t>Derived from "kalbo", refers to a person who is bald</t>
+  </si>
+  <si>
+    <t>arat</t>
+  </si>
+  <si>
+    <t>efas</t>
+  </si>
+  <si>
+    <t>bokal</t>
+  </si>
+  <si>
+    <t>Noypi</t>
+  </si>
+  <si>
+    <t>Derived from "Pinoy", refers to the citizen of the Philippines</t>
+  </si>
+  <si>
+    <t>wetpu</t>
+  </si>
+  <si>
+    <t>Derived from "Puwet", the tagalog term for butt</t>
+  </si>
+  <si>
+    <t>ngetpa</t>
+  </si>
+  <si>
+    <t>Derived from "pangit", the tagalog term for ugly</t>
+  </si>
+  <si>
+    <t>haybu</t>
+  </si>
+  <si>
+    <t>Derived from "buhay", the tagalog term for life</t>
+  </si>
+  <si>
+    <t>lugsto</t>
+  </si>
+  <si>
+    <t>Derived from "tulog", the tagalog term for sleep</t>
+  </si>
+  <si>
+    <t>batsi</t>
+  </si>
+  <si>
+    <t>Derived from "sibat", which is commonly used when someone invites you to leave or scram</t>
+  </si>
+  <si>
+    <t>lespu</t>
+  </si>
+  <si>
+    <t>jeproks</t>
+  </si>
+  <si>
+    <t>Derived from "projects", typically refers to someone that has a lot of street smarts or comes from the projects</t>
+  </si>
+  <si>
+    <t>gasmati</t>
+  </si>
+  <si>
+    <t>Derived from "matigas", refers to people who are hard-headded or stubborn</t>
+  </si>
+  <si>
+    <t>golets</t>
+  </si>
+  <si>
+    <t>Derived from the English term "Let's go", which is commonly used for invitation to go or leave</t>
+  </si>
+  <si>
+    <t>tigas</t>
+  </si>
+  <si>
+    <t>Derived from "tigas", refers to people who are known to be tough</t>
+  </si>
+  <si>
+    <t>erpat</t>
+  </si>
+  <si>
+    <t>Slang for "Tatay" or father, often used affectionately or casually</t>
+  </si>
+  <si>
+    <t>ermat</t>
+  </si>
+  <si>
+    <t>Slang for "Nanay" or mother, used similarly to "erpat" for father.</t>
+  </si>
+  <si>
+    <t>walwal</t>
+  </si>
+  <si>
+    <t>Partying or going out excessively, often involving drinking alcohol.</t>
+  </si>
+  <si>
+    <t>anyare</t>
+  </si>
+  <si>
+    <t>Filipino slang for "Ano ang nangyari?" which means "What happened?" or "What's going on?"</t>
+  </si>
+  <si>
+    <t>naol</t>
+  </si>
+  <si>
+    <t>Alternate spelling of "sana all," translating to "hope all."</t>
+  </si>
+  <si>
+    <t>lods</t>
+  </si>
+  <si>
+    <t>Refers to the person you idolise or look up to</t>
+  </si>
+  <si>
+    <t>dol</t>
+  </si>
+  <si>
+    <t>awit</t>
+  </si>
+  <si>
+    <t>Filipino slang that expresses frustration or disappointment, similar to saying "Oh no!" or "Oh my!"</t>
+  </si>
+  <si>
+    <t>datung</t>
+  </si>
+  <si>
+    <t>A term used in Filipino slang to mean "money" or "wealth."</t>
+  </si>
+  <si>
+    <t>pards</t>
+  </si>
+  <si>
+    <t>Short for "pare" or "kumpare," which means friend or buddy.</t>
+  </si>
+  <si>
+    <t>chibog</t>
+  </si>
+  <si>
+    <t>This can be said to refer to food or to signify eating time.</t>
+  </si>
+  <si>
+    <t>sharon</t>
+  </si>
+  <si>
+    <t>Playful Filipino custom of taking home food from gatherings, inspired by superstar 
+Sharon Cuneta's song about wrapping.</t>
+  </si>
+  <si>
+    <t>aning</t>
+  </si>
+  <si>
+    <t>Used to describe someone who is paranoid or crazy</t>
+  </si>
+  <si>
+    <t>korik</t>
+  </si>
+  <si>
+    <t>A Filipino term which refers to someone that is cool and laid back, and street smart</t>
+  </si>
+  <si>
+    <t>budol/goyo</t>
+  </si>
+  <si>
+    <t>The act of persuading someone into doin or buying something unnecessary.</t>
+  </si>
+  <si>
+    <t>syota</t>
+  </si>
+  <si>
+    <t>Derived from the phrase "short time", this term refers to the person in the relationship that is a casual short-term fling.</t>
+  </si>
+  <si>
+    <t>adidas</t>
+  </si>
+  <si>
+    <t>The slang term for chicken feet, which are usually grilled and each skewered on a thin wooden stick.</t>
+  </si>
+  <si>
+    <t>todas</t>
+  </si>
+  <si>
+    <t>A term used to mean "</t>
+  </si>
+  <si>
+    <t>sikyo</t>
+  </si>
+  <si>
+    <t>A shortcut for the term "Security Guard", which is a person employed by a government or private party to 
+protect the employing party's assets from a variety of hazards by enforcing preventative measures</t>
+  </si>
+  <si>
+    <t>tsimay</t>
+  </si>
+  <si>
+    <t>A slang term to refer to a maid or housemaid</t>
+  </si>
+  <si>
+    <t>bakokang</t>
+  </si>
+  <si>
+    <t>A playful term for a peklat, which means scar.</t>
+  </si>
+  <si>
+    <t>utol</t>
+  </si>
+  <si>
+    <t>Colloquial/informal term for one's brother or sister; buddy.</t>
+  </si>
+  <si>
+    <t>arbor</t>
+  </si>
+  <si>
+    <t>The act of claiming something to be one's possesion.</t>
+  </si>
+  <si>
+    <t>dedo</t>
+  </si>
+  <si>
+    <t>Derived from the word "dead", used to describe the situation where a person is in a critical situation to his work or to other people.</t>
+  </si>
+  <si>
+    <t>hipon</t>
+  </si>
+  <si>
+    <t>Derived from the physical appearance of a shrimp, this refers to the Filipinoslang for someone with a hot body and an ugly face.</t>
+  </si>
+  <si>
+    <t>bokya</t>
+  </si>
+  <si>
+    <t>A Filipino term to describe the situation as a failure</t>
+  </si>
+  <si>
+    <t>tsaa</t>
+  </si>
+  <si>
+    <t>A term used in Filipino slang that is based on the famous phrase "Spill the tea", which means to share juicy gossips about a situation, person, or rorganization.</t>
+  </si>
+  <si>
+    <t>panulak</t>
+  </si>
+  <si>
+    <t>A term used in Filipino slang to mean "drink" or "beverage"</t>
+  </si>
+  <si>
+    <t>hakdog</t>
+  </si>
+  <si>
+    <t>A playful way to say “What?”, with “Hakdog” added for comedic effect, inspired by memes.</t>
+  </si>
+  <si>
+    <t>sibinilibin</t>
+  </si>
+  <si>
+    <t>A playful term for the convenience store “7/11.”</t>
+  </si>
+  <si>
+    <t>AFAM</t>
+  </si>
+  <si>
+    <t>An acronym for A Foreigner Assigned to Manila, a slang term for a foreigner</t>
+  </si>
+  <si>
+    <t>inka</t>
+  </si>
+  <si>
+    <t>from the term kain, this refers to the invitation "to eat".</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -217,46 +810,67 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -446,260 +1060,1068 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B130"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="97.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="6" spans="1:2" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="8" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+    <row r="10" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="172.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="93" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="4" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="93" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="132.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="119.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="4" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="132.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="4" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="93" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="4" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="4" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="4" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="119.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="4" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>59</v>
+    </row>
+    <row r="31" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test.xlsx
+++ b/Test.xlsx
@@ -1,21 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4127f3c75ff7001b/Documents/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{530123A0-DC33-4716-AF10-87053A519830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8880F4A0-1FFF-4BFB-81B7-D09A46BEF166}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -28,28 +19,61 @@
     <t>Definition</t>
   </si>
   <si>
+    <t>chika</t>
+  </si>
+  <si>
     <t>Gossip or a piece of interesting news.</t>
   </si>
   <si>
+    <t>beshie/besh/bes</t>
+  </si>
+  <si>
     <t>A term of endearment, equivalent to “best friend.”</t>
   </si>
   <si>
+    <t>char/chariz</t>
+  </si>
+  <si>
     <t>Indicates something is a joke or not serious.</t>
   </si>
   <si>
+    <t>echos/echosera</t>
+  </si>
+  <si>
     <t>Someone who loves to joke or exaggerate.</t>
   </si>
   <si>
+    <t>mumsh</t>
+  </si>
+  <si>
     <t>A term of endearment, similar to “mom” or “sis.”</t>
   </si>
   <si>
+    <t>kyah</t>
+  </si>
+  <si>
     <t>A casual term to address a male person, similar to “bro.”</t>
   </si>
   <si>
+    <t>forda</t>
+  </si>
+  <si>
     <t>shorthand for "for the."</t>
   </si>
   <si>
+    <t>mars/mare/marecakes</t>
+  </si>
+  <si>
     <t>Friendly terms for addressing someone, akin to “friend” or “sis.”</t>
+  </si>
+  <si>
+    <t>dasurv</t>
+  </si>
+  <si>
+    <t>A playful take on the word “deserve.”</t>
+  </si>
+  <si>
+    <t>naur</t>
   </si>
   <si>
     <t>A dramatic way to say “no.” Borrowed from the Australians.</t>
@@ -170,39 +194,6 @@
   </si>
   <si>
     <t>Used to describe someone who is aware of his nature of being gay from the time that he was a child</t>
-  </si>
-  <si>
-    <t>chika</t>
-  </si>
-  <si>
-    <t>beshie/besh/bes</t>
-  </si>
-  <si>
-    <t>char/chariz</t>
-  </si>
-  <si>
-    <t>echos/echosera</t>
-  </si>
-  <si>
-    <t>mumsh</t>
-  </si>
-  <si>
-    <t>kyah</t>
-  </si>
-  <si>
-    <t>forda</t>
-  </si>
-  <si>
-    <t>mars/mare/marecakes</t>
-  </si>
-  <si>
-    <t>dasurv</t>
-  </si>
-  <si>
-    <t>A playful take on the word “deserve.”</t>
-  </si>
-  <si>
-    <t>naur</t>
   </si>
   <si>
     <t>tukling</t>
@@ -784,25 +775,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="3">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -810,17 +799,11 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
@@ -834,43 +817,39 @@
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1060,28 +1039,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="97.44140625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="12.63"/>
+    <col customWidth="1" min="2" max="2" width="97.5"/>
+    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1089,239 +1066,239 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="3" t="s">
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="172.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="93" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="93" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="132.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="119.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="132.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="93" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="119.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -1329,7 +1306,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -1337,7 +1314,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -1345,7 +1322,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -1353,7 +1330,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
@@ -1361,7 +1338,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
@@ -1369,7 +1346,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
@@ -1377,7 +1354,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -1385,7 +1362,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
@@ -1393,7 +1370,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
@@ -1401,7 +1378,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
@@ -1409,7 +1386,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
@@ -1417,7 +1394,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
@@ -1425,7 +1402,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
@@ -1433,7 +1410,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
@@ -1441,7 +1418,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>90</v>
       </c>
@@ -1449,7 +1426,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -1457,7 +1434,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
@@ -1465,7 +1442,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
@@ -1473,7 +1450,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>98</v>
       </c>
@@ -1481,7 +1458,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>100</v>
       </c>
@@ -1489,7 +1466,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>102</v>
       </c>
@@ -1497,7 +1474,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>104</v>
       </c>
@@ -1505,7 +1482,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>106</v>
       </c>
@@ -1513,7 +1490,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>108</v>
       </c>
@@ -1521,7 +1498,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>110</v>
       </c>
@@ -1529,7 +1506,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="4" t="s">
         <v>112</v>
       </c>
@@ -1537,7 +1514,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="4" t="s">
         <v>114</v>
       </c>
@@ -1545,7 +1522,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>116</v>
       </c>
@@ -1553,7 +1530,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="4" t="s">
         <v>118</v>
       </c>
@@ -1561,7 +1538,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="4" t="s">
         <v>120</v>
       </c>
@@ -1569,7 +1546,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="4" t="s">
         <v>122</v>
       </c>
@@ -1577,7 +1554,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="4" t="s">
         <v>124</v>
       </c>
@@ -1585,7 +1562,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="4" t="s">
         <v>126</v>
       </c>
@@ -1593,7 +1570,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="4" t="s">
         <v>128</v>
       </c>
@@ -1601,7 +1578,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="4" t="s">
         <v>112</v>
       </c>
@@ -1609,7 +1586,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="4" t="s">
         <v>131</v>
       </c>
@@ -1617,7 +1594,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="4" t="s">
         <v>133</v>
       </c>
@@ -1625,7 +1602,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="4" t="s">
         <v>135</v>
       </c>
@@ -1633,7 +1610,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="4" t="s">
         <v>137</v>
       </c>
@@ -1641,7 +1618,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="4" t="s">
         <v>139</v>
       </c>
@@ -1649,7 +1626,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="4" t="s">
         <v>141</v>
       </c>
@@ -1657,7 +1634,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="4" t="s">
         <v>143</v>
       </c>
@@ -1665,7 +1642,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="4" t="s">
         <v>145</v>
       </c>
@@ -1673,7 +1650,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="4" t="s">
         <v>143</v>
       </c>
@@ -1681,7 +1658,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="4" t="s">
         <v>147</v>
       </c>
@@ -1689,7 +1666,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="4" t="s">
         <v>149</v>
       </c>
@@ -1697,7 +1674,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="4" t="s">
         <v>151</v>
       </c>
@@ -1705,7 +1682,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="4" t="s">
         <v>153</v>
       </c>
@@ -1713,7 +1690,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="4" t="s">
         <v>155</v>
       </c>
@@ -1721,7 +1698,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="4" t="s">
         <v>157</v>
       </c>
@@ -1729,7 +1706,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="4" t="s">
         <v>159</v>
       </c>
@@ -1737,7 +1714,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="4" t="s">
         <v>161</v>
       </c>
@@ -1745,7 +1722,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="4" t="s">
         <v>163</v>
       </c>
@@ -1753,7 +1730,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="4" t="s">
         <v>164</v>
       </c>
@@ -1761,7 +1738,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="4" t="s">
         <v>165</v>
       </c>
@@ -1769,7 +1746,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="4" t="s">
         <v>166</v>
       </c>
@@ -1777,7 +1754,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="4" t="s">
         <v>168</v>
       </c>
@@ -1785,7 +1762,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="4" t="s">
         <v>170</v>
       </c>
@@ -1793,7 +1770,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="4" t="s">
         <v>172</v>
       </c>
@@ -1801,7 +1778,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="4" t="s">
         <v>174</v>
       </c>
@@ -1809,7 +1786,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="4" t="s">
         <v>176</v>
       </c>
@@ -1817,7 +1794,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="4" t="s">
         <v>178</v>
       </c>
@@ -1825,7 +1802,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="4" t="s">
         <v>179</v>
       </c>
@@ -1833,7 +1810,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="4" t="s">
         <v>181</v>
       </c>
@@ -1841,7 +1818,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="4" t="s">
         <v>183</v>
       </c>
@@ -1849,7 +1826,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="4" t="s">
         <v>185</v>
       </c>
@@ -1857,7 +1834,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="4" t="s">
         <v>187</v>
       </c>
@@ -1865,7 +1842,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" ht="18.75" customHeight="1">
       <c r="A99" s="4" t="s">
         <v>189</v>
       </c>
@@ -1873,7 +1850,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" ht="18.75" customHeight="1">
       <c r="A100" s="4" t="s">
         <v>191</v>
       </c>
@@ -1881,7 +1858,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" ht="27.0" customHeight="1">
       <c r="A101" s="4" t="s">
         <v>193</v>
       </c>
@@ -1889,7 +1866,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="4" t="s">
         <v>195</v>
       </c>
@@ -1897,7 +1874,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="4" t="s">
         <v>197</v>
       </c>
@@ -1905,7 +1882,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="4" t="s">
         <v>199</v>
       </c>
@@ -1913,7 +1890,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" ht="27.75" customHeight="1">
       <c r="A105" s="4" t="s">
         <v>200</v>
       </c>
@@ -1921,7 +1898,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="4" t="s">
         <v>202</v>
       </c>
@@ -1929,7 +1906,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="4" t="s">
         <v>204</v>
       </c>
@@ -1937,7 +1914,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="4" t="s">
         <v>206</v>
       </c>
@@ -1945,7 +1922,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" ht="27.75" customHeight="1">
       <c r="A109" s="4" t="s">
         <v>208</v>
       </c>
@@ -1953,7 +1930,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="4" t="s">
         <v>210</v>
       </c>
@@ -1961,15 +1938,15 @@
         <v>211</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="4" t="s">
         <v>212</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="4" t="s">
         <v>179</v>
       </c>
@@ -1977,7 +1954,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="4" t="s">
         <v>214</v>
       </c>
@@ -1985,7 +1962,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" ht="30.75" customHeight="1">
       <c r="A114" s="4" t="s">
         <v>216</v>
       </c>
@@ -1993,7 +1970,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" ht="39.0" customHeight="1">
       <c r="A115" s="4" t="s">
         <v>218</v>
       </c>
@@ -2001,7 +1978,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="4" t="s">
         <v>220</v>
       </c>
@@ -2009,7 +1986,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" ht="36.75" customHeight="1">
       <c r="A117" s="4" t="s">
         <v>222</v>
       </c>
@@ -2017,7 +1994,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="4" t="s">
         <v>224</v>
       </c>
@@ -2025,7 +2002,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="4" t="s">
         <v>226</v>
       </c>
@@ -2033,7 +2010,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="4" t="s">
         <v>228</v>
       </c>
@@ -2041,7 +2018,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="4" t="s">
         <v>230</v>
       </c>
@@ -2049,7 +2026,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" ht="38.25" customHeight="1">
       <c r="A122" s="4" t="s">
         <v>232</v>
       </c>
@@ -2057,7 +2034,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" ht="37.5" customHeight="1">
       <c r="A123" s="4" t="s">
         <v>234</v>
       </c>
@@ -2065,7 +2042,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="4" t="s">
         <v>236</v>
       </c>
@@ -2073,7 +2050,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" ht="30.0" customHeight="1">
       <c r="A125" s="4" t="s">
         <v>238</v>
       </c>
@@ -2081,7 +2058,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="4" t="s">
         <v>240</v>
       </c>
@@ -2089,7 +2066,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" ht="30.0" customHeight="1">
       <c r="A127" s="4" t="s">
         <v>242</v>
       </c>
@@ -2097,7 +2074,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="4" t="s">
         <v>244</v>
       </c>
@@ -2105,7 +2082,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="4" t="s">
         <v>246</v>
       </c>
@@ -2113,7 +2090,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="4" t="s">
         <v>248</v>
       </c>
@@ -2121,7 +2098,880 @@
         <v>249</v>
       </c>
     </row>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>